--- a/.github/workflows/Snowflake_Assessment Questions 20241207.xlsx
+++ b/.github/workflows/Snowflake_Assessment Questions 20241207.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narasimharg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201DAF08-64DB-4A3C-AB7E-154168EBD873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCA09AC-970B-408D-8CA9-D26A4A39607F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="703" xr2:uid="{BAAC88C6-5D8A-4573-BAE9-24495D555C59}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>Answers</t>
   </si>
   <si>
-    <t>Edit the Workload management tab to assign the COMPUTE_WH_XL</t>
-  </si>
-  <si>
     <t>1. three ways to load data are named stage, user stage and table stage
 2. put the files from local disk to each stage depending on the data security type by providing the source file path 
 3. run copy into command to insert the data from stage to snowflake table</t>
@@ -231,6 +228,9 @@
                                                 );
 2. VARIANT column to read the entire content of JSON file
 3. SELECT query to fetch the supplier name</t>
+  </si>
+  <si>
+    <t>use WAREHOUSE COMPUTE_WH_XL</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -670,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="290.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -684,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.35">
@@ -698,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -712,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -807,10 +807,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -821,7 +821,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -849,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -863,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -951,6 +951,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED3B90A30A8F349BD7D4B868F84B1CE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="afe9df7a105ddee49b8760bd4964c665">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbf5d362-b478-4125-90e6-81039b690840" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6431acfad37c3f9f325e06ed34dae7c3" ns2:_="">
     <xsd:import namespace="cbf5d362-b478-4125-90e6-81039b690840"/>
@@ -1118,22 +1133,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1326B6F-2359-494A-AA05-0928F8C86050}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA8F6A8B-3440-4548-9B84-0C50AF043526}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58FEAD1-7F1E-48F6-A68B-1DB1EF102889}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1149,21 +1166,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA8F6A8B-3440-4548-9B84-0C50AF043526}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1326B6F-2359-494A-AA05-0928F8C86050}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>